--- a/excels/GA/piecesGAmean.xlsx
+++ b/excels/GA/piecesGAmean.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -458,7 +458,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>0D1</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -474,7 +474,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>D3</t>
+          <t>0D3</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -490,7 +490,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>D4</t>
+          <t>0D4</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -506,7 +506,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>D5</t>
+          <t>0D5</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -522,7 +522,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>D6</t>
+          <t>0D6</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -536,6 +536,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>